--- a/test/doc.xlsx
+++ b/test/doc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhiraj Das\Documents\DMSBackend\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03764756-604F-40F4-84CB-649B514AC901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C856891-E119-4044-B034-30713A75A8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Main Branch</t>
   </si>
   <si>
-    <t>ptec</t>
-  </si>
-  <si>
     <t>user1</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t>c:/Users/Abhiraj Das/Documents/book66.xlsx</t>
+  </si>
+  <si>
+    <t>gst</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,22 +462,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
